--- a/new_inputs/source data/angina calcs.xlsx
+++ b/new_inputs/source data/angina calcs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\NCD-Countdown\new_inputs\source data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85991F4E-7BC0-4057-A08D-DBF0FBCEAF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16034F0-DFDE-46D7-91F2-8A2A1C3F46AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2790" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2790" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHME-GBD_2019_DATA-31eeed02-1" sheetId="1" r:id="rId1"/>
     <sheet name="angina" sheetId="2" r:id="rId2"/>
+    <sheet name="rates" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IHME-GBD_2019_DATA-31eeed02-1'!$A$1:$K$17</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
   <si>
     <t>measure</t>
   </si>
@@ -115,33 +116,6 @@
     <t>females</t>
   </si>
   <si>
-    <t>30-34</t>
-  </si>
-  <si>
-    <t>35-39</t>
-  </si>
-  <si>
-    <t>40-44</t>
-  </si>
-  <si>
-    <t>45-49</t>
-  </si>
-  <si>
-    <t>50-54</t>
-  </si>
-  <si>
-    <t>55-59</t>
-  </si>
-  <si>
-    <t>60-64</t>
-  </si>
-  <si>
-    <t>65-69</t>
-  </si>
-  <si>
-    <t>prevalence rate of angina per 100,000</t>
-  </si>
-  <si>
     <t>angina</t>
   </si>
   <si>
@@ -152,6 +126,30 @@
   </si>
   <si>
     <t>divide by 10 to get incidence?</t>
+  </si>
+  <si>
+    <t>70 to 74</t>
+  </si>
+  <si>
+    <t>75 to 79</t>
+  </si>
+  <si>
+    <t>80 to 84</t>
+  </si>
+  <si>
+    <t>85 to 89</t>
+  </si>
+  <si>
+    <t>90 to 94</t>
+  </si>
+  <si>
+    <t>95 plus</t>
+  </si>
+  <si>
+    <t>IHD males</t>
+  </si>
+  <si>
+    <t>IHD females</t>
   </si>
 </sst>
 </file>
@@ -299,7 +297,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +477,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -640,12 +650,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1003,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1044,10 +1056,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1744,12 +1756,12 @@
         <v>0.24466646193434344</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="N23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1764,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:O55"/>
+  <dimension ref="A2:V96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1775,21 +1787,30 @@
     <col min="9" max="9" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J2" s="3"/>
+      <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="M2" s="4"/>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>24</v>
       </c>
@@ -1803,21 +1824,49 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <f>AVERAGE(B9:B13)</f>
-        <v>1.4E-3</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J3">
+        <f>I3*100000/10</f>
+        <v>10</v>
       </c>
       <c r="L3">
         <f>AVERAGE(E9:E13)</f>
         <v>1E-3</v>
       </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="M3">
+        <f>L3*100000/10</f>
+        <v>10</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3">
+        <v>46</v>
+      </c>
+      <c r="Q3">
+        <f>J3/P3</f>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="R3">
+        <f>P3*Q3</f>
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>32</v>
+      </c>
+      <c r="U3">
+        <f>M3/T3</f>
+        <v>0.3125</v>
+      </c>
+      <c r="V3">
+        <f>U3*T3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>25</v>
       </c>
@@ -1831,18 +1880,49 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <f>AVERAGE(B14:B18)</f>
-        <v>2.1999999999999997E-3</v>
+        <v>2E-3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J16" si="0">I4*100000/10</f>
+        <v>20</v>
       </c>
       <c r="L4">
         <f>AVERAGE(E14:E18)</f>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="M4">
+        <f t="shared" ref="M4:M16" si="1">L4*100000/10</f>
+        <v>10</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4">
+        <v>65</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q12" si="2">J4/P4</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R12" si="3">P4*Q4</f>
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <v>39</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U12" si="4">M4/T4</f>
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V12" si="5">U4*T4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>26</v>
       </c>
@@ -1856,18 +1936,49 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I5">
         <f>AVERAGE(B19:B23)</f>
         <v>3.8E-3</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="L5">
         <f>AVERAGE(E19:E23)</f>
-        <v>1.8000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>2.1999999999999997E-3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>21.999999999999996</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5">
+        <v>144</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="T5">
+        <v>69</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="4"/>
+        <v>0.3188405797101449</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="5"/>
+        <v>21.999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>27</v>
       </c>
@@ -1881,18 +1992,49 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I6">
         <f>AVERAGE(B24:B28)</f>
         <v>6.6E-3</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
       <c r="L6">
         <f>AVERAGE(E24:E28)</f>
         <v>3.4000000000000002E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <v>273</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>0.24175824175824176</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="T6">
+        <v>119</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>28</v>
       </c>
@@ -1906,18 +2048,49 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <f>AVERAGE(B29:B33)</f>
         <v>1.0399999999999998E-2</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>103.99999999999997</v>
+      </c>
       <c r="L7">
         <f>AVERAGE(E29:E33)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>5.2000000000000006E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>52.000000000000014</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
+        <v>498</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>0.20883534136546178</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>103.99999999999997</v>
+      </c>
+      <c r="T7">
+        <v>209</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="4"/>
+        <v>0.24880382775119625</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>52.000000000000014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>29</v>
       </c>
@@ -1931,18 +2104,49 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <f>AVERAGE(B34:B38)</f>
-        <v>1.6E-2</v>
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>162</v>
       </c>
       <c r="L8">
         <f>AVERAGE(E34:E38)</f>
-        <v>8.2000000000000007E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>8.4000000000000012E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1">
+        <v>831</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>0.19494584837545126</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="T8">
+        <v>343</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>0.24489795918367352</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="5"/>
+        <v>84.000000000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -1956,18 +2160,49 @@
         <v>1E-3</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I9">
         <f>AVERAGE(B39:B43)</f>
-        <v>2.4199999999999999E-2</v>
+        <v>2.52E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>252</v>
       </c>
       <c r="L9">
         <f>AVERAGE(E39:E43)</f>
-        <v>1.24E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <v>1151</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0.21894005212858383</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="T9">
+        <v>555</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>31</v>
       </c>
@@ -1981,18 +2216,49 @@
         <v>1E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I10">
         <f>AVERAGE(B44:B48)</f>
-        <v>3.78E-2</v>
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>382</v>
       </c>
       <c r="L10">
         <f>AVERAGE(E44:E48)</f>
         <v>1.8800000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <v>1435</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0.26620209059233452</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>382.00000000000006</v>
+      </c>
+      <c r="T10">
+        <v>824</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="4"/>
+        <v>0.22815533980582525</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>32</v>
       </c>
@@ -2005,13 +2271,55 @@
       <c r="E11">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(B49:B53)</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGE(E49:E53)</f>
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <v>1793</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>0.30451756832124932</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>546</v>
+      </c>
+      <c r="T11">
+        <v>1144</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="4"/>
+        <v>0.23426573426573427</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="5"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>33</v>
       </c>
       <c r="B12">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D12" s="1">
         <v>33</v>
@@ -2019,13 +2327,55 @@
       <c r="E12">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(B54:B58)</f>
+        <v>6.7600000000000007E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>676.00000000000011</v>
+      </c>
+      <c r="L12">
+        <f>AVERAGE(E54:E58)</f>
+        <v>3.3600000000000005E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>336.00000000000006</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1">
+        <v>2234</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0.30259623992837964</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>676.00000000000011</v>
+      </c>
+      <c r="T12">
+        <v>1555</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>0.21607717041800648</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="5"/>
+        <v>336.00000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>34</v>
       </c>
       <c r="B13">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D13" s="1">
         <v>34</v>
@@ -2033,8 +2383,29 @@
       <c r="E13">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(B59:B63)</f>
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>736</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGE(E59:E63)</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>35</v>
       </c>
@@ -2047,8 +2418,29 @@
       <c r="E14">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(B64:B68)</f>
+        <v>7.22E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>722</v>
+      </c>
+      <c r="L14">
+        <f>AVERAGE(E64:E68)</f>
+        <v>3.6199999999999996E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>361.99999999999994</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>36</v>
       </c>
@@ -2061,8 +2453,29 @@
       <c r="E15">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(B69:B73)</f>
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>648</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGE(E69:E73)</f>
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>328.00000000000006</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>37</v>
       </c>
@@ -2075,8 +2488,37 @@
       <c r="E16">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(B74:B78)</f>
+        <v>5.5799999999999995E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>557.99999999999989</v>
+      </c>
+      <c r="L16">
+        <f>AVERAGE(E74:E78)</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>279.99999999999994</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16">
+        <f>AVERAGE(Q3:Q12)</f>
+        <v>0.2526767883398725</v>
+      </c>
+      <c r="T16">
+        <f>AVERAGE(U3:U12)</f>
+        <v>0.2561881369475339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>38</v>
       </c>
@@ -2089,13 +2531,15 @@
       <c r="E17">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>39</v>
       </c>
       <c r="B18">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D18" s="1">
         <v>39</v>
@@ -2103,8 +2547,18 @@
       <c r="E18">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18">
+        <f>SUM(R3:R12)/SUM(P3:P12)</f>
+        <v>0.26635182998819362</v>
+      </c>
+      <c r="T18">
+        <f>SUM(V3:V12)/SUM(T3:T12)</f>
+        <v>0.22990386582123135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>40</v>
       </c>
@@ -2115,10 +2569,12 @@
         <v>40</v>
       </c>
       <c r="E19">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>2E-3</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>41</v>
       </c>
@@ -2131,8 +2587,10 @@
       <c r="E20">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>42</v>
       </c>
@@ -2145,8 +2603,10 @@
       <c r="E21">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>43</v>
       </c>
@@ -2159,8 +2619,10 @@
       <c r="E22">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>44</v>
       </c>
@@ -2171,10 +2633,12 @@
         <v>44</v>
       </c>
       <c r="E23">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>45</v>
       </c>
@@ -2187,8 +2651,10 @@
       <c r="E24">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>46</v>
       </c>
@@ -2201,8 +2667,10 @@
       <c r="E25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>47</v>
       </c>
@@ -2215,8 +2683,10 @@
       <c r="E26">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>48</v>
       </c>
@@ -2229,8 +2699,10 @@
       <c r="E27">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>49</v>
       </c>
@@ -2243,8 +2715,10 @@
       <c r="E28">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>50</v>
       </c>
@@ -2257,8 +2731,10 @@
       <c r="E29">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>51</v>
       </c>
@@ -2271,8 +2747,10 @@
       <c r="E30">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>52</v>
       </c>
@@ -2285,8 +2763,10 @@
       <c r="E31">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>53</v>
       </c>
@@ -2297,10 +2777,12 @@
         <v>53</v>
       </c>
       <c r="E32">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>54</v>
       </c>
@@ -2313,13 +2795,15 @@
       <c r="E33">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>55</v>
       </c>
       <c r="B34">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D34" s="1">
         <v>55</v>
@@ -2327,8 +2811,10 @@
       <c r="E34">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>56</v>
       </c>
@@ -2339,10 +2825,12 @@
         <v>56</v>
       </c>
       <c r="E35">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>57</v>
       </c>
@@ -2355,8 +2843,10 @@
       <c r="E36">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>58</v>
       </c>
@@ -2369,8 +2859,10 @@
       <c r="E37">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>59</v>
       </c>
@@ -2383,13 +2875,15 @@
       <c r="E38">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>60</v>
       </c>
       <c r="B39">
-        <v>0.02</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D39" s="1">
         <v>60</v>
@@ -2397,13 +2891,15 @@
       <c r="E39">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>61</v>
       </c>
       <c r="B40">
-        <v>2.1999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D40" s="1">
         <v>61</v>
@@ -2411,13 +2907,15 @@
       <c r="E40">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>62</v>
       </c>
       <c r="B41">
-        <v>2.4E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D41" s="1">
         <v>62</v>
@@ -2425,36 +2923,42 @@
       <c r="E41">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <v>63</v>
       </c>
       <c r="B42">
-        <v>2.5999999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D42" s="1">
         <v>63</v>
       </c>
       <c r="E42">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <v>64</v>
       </c>
       <c r="B43">
-        <v>2.9000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D43" s="1">
         <v>64</v>
       </c>
       <c r="E43">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>65</v>
       </c>
@@ -2467,13 +2971,15 @@
       <c r="E44">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <v>66</v>
       </c>
       <c r="B45">
-        <v>3.4000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D45" s="1">
         <v>66</v>
@@ -2481,8 +2987,10 @@
       <c r="E45">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <v>67</v>
       </c>
@@ -2495,8 +3003,10 @@
       <c r="E46">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="1">
         <v>68</v>
       </c>
@@ -2509,13 +3019,15 @@
       <c r="E47">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
         <v>69</v>
       </c>
       <c r="B48">
-        <v>4.3999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D48" s="1">
         <v>69</v>
@@ -2523,8 +3035,10 @@
       <c r="E48">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>70</v>
       </c>
@@ -2537,8 +3051,10 @@
       <c r="E49">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>71</v>
       </c>
@@ -2551,8 +3067,10 @@
       <c r="E50">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>72</v>
       </c>
@@ -2565,8 +3083,10 @@
       <c r="E51">
         <v>2.7E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>73</v>
       </c>
@@ -2579,8 +3099,10 @@
       <c r="E52">
         <v>2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>74</v>
       </c>
@@ -2591,10 +3113,12 @@
         <v>74</v>
       </c>
       <c r="E53">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>75</v>
       </c>
@@ -2605,10 +3129,12 @@
         <v>75</v>
       </c>
       <c r="E54">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>76</v>
       </c>
@@ -2621,8 +3147,461 @@
       <c r="E55">
         <v>3.3000000000000002E-2</v>
       </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <v>77</v>
+      </c>
+      <c r="B56">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D56">
+        <v>77</v>
+      </c>
+      <c r="E56">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>78</v>
+      </c>
+      <c r="B57">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D57">
+        <v>78</v>
+      </c>
+      <c r="E57">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <v>79</v>
+      </c>
+      <c r="B58">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D58">
+        <v>79</v>
+      </c>
+      <c r="E58">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
+        <v>80</v>
+      </c>
+      <c r="B59">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D59">
+        <v>80</v>
+      </c>
+      <c r="E59">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60">
+        <v>81</v>
+      </c>
+      <c r="B60">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D60">
+        <v>81</v>
+      </c>
+      <c r="E60">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <v>82</v>
+      </c>
+      <c r="B61">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D61">
+        <v>82</v>
+      </c>
+      <c r="E61">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <v>83</v>
+      </c>
+      <c r="B62">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D62">
+        <v>83</v>
+      </c>
+      <c r="E62">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63">
+        <v>84</v>
+      </c>
+      <c r="B63">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D63">
+        <v>84</v>
+      </c>
+      <c r="E63">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64">
+        <v>85</v>
+      </c>
+      <c r="B64">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D64">
+        <v>85</v>
+      </c>
+      <c r="E64">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65">
+        <v>86</v>
+      </c>
+      <c r="B65">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D65">
+        <v>86</v>
+      </c>
+      <c r="E65">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66">
+        <v>87</v>
+      </c>
+      <c r="B66">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D66">
+        <v>87</v>
+      </c>
+      <c r="E66">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67">
+        <v>88</v>
+      </c>
+      <c r="B67">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D67">
+        <v>88</v>
+      </c>
+      <c r="E67">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68">
+        <v>89</v>
+      </c>
+      <c r="B68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D68">
+        <v>89</v>
+      </c>
+      <c r="E68">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69">
+        <v>90</v>
+      </c>
+      <c r="B69">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D69">
+        <v>90</v>
+      </c>
+      <c r="E69">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70">
+        <v>91</v>
+      </c>
+      <c r="B70">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D70">
+        <v>91</v>
+      </c>
+      <c r="E70">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71">
+        <v>92</v>
+      </c>
+      <c r="B71">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D71">
+        <v>92</v>
+      </c>
+      <c r="E71">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72">
+        <v>93</v>
+      </c>
+      <c r="B72">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D72">
+        <v>93</v>
+      </c>
+      <c r="E72">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73">
+        <v>94</v>
+      </c>
+      <c r="B73">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D73">
+        <v>94</v>
+      </c>
+      <c r="E73">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74">
+        <v>95</v>
+      </c>
+      <c r="B74">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D74">
+        <v>95</v>
+      </c>
+      <c r="E74">
+        <v>0.03</v>
+      </c>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75">
+        <v>96</v>
+      </c>
+      <c r="B75">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D75">
+        <v>96</v>
+      </c>
+      <c r="E75">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76">
+        <v>97</v>
+      </c>
+      <c r="B76">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D76">
+        <v>97</v>
+      </c>
+      <c r="E76">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77">
+        <v>98</v>
+      </c>
+      <c r="B77">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D77">
+        <v>98</v>
+      </c>
+      <c r="E77">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78">
+        <v>99</v>
+      </c>
+      <c r="B78">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D78">
+        <v>99</v>
+      </c>
+      <c r="E78">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="15:16">
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" spans="15:16">
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="15:16">
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="15:16">
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="15:16">
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="15:16">
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="15:16">
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="15:16">
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="15:16">
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="15:16">
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="15:16">
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="15:16">
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="15:16">
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="15:16">
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="15:16">
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="15:16">
+      <c r="P96" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AD8511-09C1-411D-81DB-A93AA7E385BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>